--- a/raw_data/20200818_saline/20200818_Sensor3_Test_33.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_33.xlsx
@@ -1,2457 +1,2873 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6A0B55-F9DE-4130-99D4-3A8BAEEE508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>29355.343122</v>
+        <v>29355.343121999998</v>
       </c>
       <c r="B2" s="1">
-        <v>8.154262</v>
+        <v>8.1542619999999992</v>
       </c>
       <c r="C2" s="1">
-        <v>1150.120000</v>
+        <v>1150.1199999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-260.605000</v>
+        <v>-260.60500000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>29365.708021</v>
+        <v>29365.708020999999</v>
       </c>
       <c r="G2" s="1">
-        <v>8.157141</v>
+        <v>8.1571409999999993</v>
       </c>
       <c r="H2" s="1">
-        <v>1171.500000</v>
+        <v>1171.5</v>
       </c>
       <c r="I2" s="1">
-        <v>-218.348000</v>
+        <v>-218.34800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>29376.458808</v>
+        <v>29376.458807999999</v>
       </c>
       <c r="L2" s="1">
-        <v>8.160127</v>
+        <v>8.1601269999999992</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.140000</v>
+        <v>1199.1400000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.278000</v>
+        <v>-151.27799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>29386.684825</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.162968</v>
+        <v>8.1629679999999993</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.890000</v>
+        <v>1206.8900000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.905000</v>
+        <v>-128.905</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>29397.017019</v>
+        <v>29397.017018999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.165838</v>
+        <v>8.1658380000000008</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.723000</v>
+        <v>-107.723</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>29407.085806</v>
+        <v>29407.085805999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.168635</v>
+        <v>8.1686350000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1221.250000</v>
+        <v>1221.25</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.377700</v>
+        <v>-90.377700000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>29417.348992</v>
+        <v>29417.348991999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.171486</v>
+        <v>8.1714859999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.845400</v>
+        <v>-85.845399999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>29427.405379</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.174279</v>
+        <v>8.1742790000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>1232.640000</v>
+        <v>1232.6400000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.160500</v>
+        <v>-89.160499999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>29437.970197</v>
+        <v>29437.970196999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.177214</v>
+        <v>8.1772139999999993</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.071000</v>
+        <v>-101.071</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>29448.960060</v>
+        <v>29448.960060000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.180267</v>
+        <v>8.1802670000000006</v>
       </c>
       <c r="AV2" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.355000</v>
+        <v>-120.355</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>29459.690477</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.183247</v>
+        <v>8.1832469999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.829000</v>
+        <v>-137.82900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>29470.998265</v>
+        <v>29470.998264999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.186388</v>
+        <v>8.1863880000000009</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.460000</v>
+        <v>1298.46</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.702000</v>
+        <v>-219.702</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>29481.997051</v>
+        <v>29481.997050999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.189444</v>
+        <v>8.1894439999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.380000</v>
+        <v>-356.38</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>29493.449676</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.192625</v>
+        <v>8.1926249999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1480.580000</v>
+        <v>1480.58</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.778000</v>
+        <v>-579.77800000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>29505.343246</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.195929</v>
+        <v>8.1959289999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1611.420000</v>
+        <v>1611.42</v>
       </c>
       <c r="BV2" s="1">
-        <v>-833.136000</v>
+        <v>-833.13599999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>29516.351982</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.198987</v>
+        <v>8.1989870000000007</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1763.540000</v>
+        <v>1763.54</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1108.130000</v>
+        <v>-1108.1300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>29527.185174</v>
+        <v>29527.185173999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.201996</v>
+        <v>8.2019959999999994</v>
       </c>
       <c r="CE2" s="1">
-        <v>2181.460000</v>
+        <v>2181.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1777.630000</v>
+        <v>-1777.63</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>29356.014706</v>
+        <v>29356.014706000002</v>
       </c>
       <c r="B3" s="1">
-        <v>8.154449</v>
+        <v>8.1544489999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.270000</v>
+        <v>1150.27</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.427000</v>
+        <v>-260.42700000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>29366.357781</v>
+        <v>29366.357780999999</v>
       </c>
       <c r="G3" s="1">
-        <v>8.157322</v>
+        <v>8.1573220000000006</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.950000</v>
+        <v>1171.95</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.986000</v>
+        <v>-217.98599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>29376.569414</v>
+        <v>29376.569414000001</v>
       </c>
       <c r="L3" s="1">
-        <v>8.160158</v>
+        <v>8.1601579999999991</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.170000</v>
+        <v>1199.17</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.296000</v>
+        <v>-151.29599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>29387.080637</v>
+        <v>29387.080636999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.163078</v>
+        <v>8.1630780000000005</v>
       </c>
       <c r="R3" s="1">
-        <v>1206.880000</v>
+        <v>1206.8800000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.792000</v>
+        <v>-128.792</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>29397.363691</v>
+        <v>29397.363690999999</v>
       </c>
       <c r="V3" s="1">
         <v>8.165934</v>
       </c>
       <c r="W3" s="1">
-        <v>1214.090000</v>
+        <v>1214.0899999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.716000</v>
+        <v>-107.71599999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>29407.470669</v>
+        <v>29407.470668999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.168742</v>
+        <v>8.1687419999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1221.160000</v>
+        <v>1221.1600000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.415800</v>
+        <v>-90.415800000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>29417.689280</v>
+        <v>29417.689279999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.171580</v>
+        <v>8.1715800000000005</v>
       </c>
       <c r="AG3" s="1">
-        <v>1225.720000</v>
+        <v>1225.72</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.921100</v>
+        <v>-85.921099999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>29427.830451</v>
+        <v>29427.830451000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.174397</v>
+        <v>8.1743970000000008</v>
       </c>
       <c r="AL3" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.153500</v>
+        <v>-89.153499999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>29438.413124</v>
+        <v>29438.413123999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.177337</v>
+        <v>8.1773369999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.088000</v>
+        <v>-101.08799999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>29449.384598</v>
+        <v>29449.384598000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.180385</v>
+        <v>8.1803849999999994</v>
       </c>
       <c r="AV3" s="1">
-        <v>1250.330000</v>
+        <v>1250.33</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.368000</v>
+        <v>-120.36799999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>29460.049610</v>
+        <v>29460.049609999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.183347</v>
+        <v>8.1833469999999995</v>
       </c>
       <c r="BA3" s="1">
-        <v>1258.720000</v>
+        <v>1258.72</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.836000</v>
+        <v>-137.83600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>29471.362827</v>
+        <v>29471.362827000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.186490</v>
+        <v>8.1864899999999992</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.460000</v>
+        <v>1298.46</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.706000</v>
+        <v>-219.70599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>29482.368594</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.189547</v>
+        <v>8.1895469999999992</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.320000</v>
+        <v>1367.32</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.388000</v>
+        <v>-356.38799999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>29493.875244</v>
+        <v>29493.875243999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.192743</v>
+        <v>8.1927430000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1480.640000</v>
+        <v>1480.64</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.770000</v>
+        <v>-579.77</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>29505.783196</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.196051</v>
+        <v>8.1960510000000006</v>
       </c>
       <c r="BU3" s="1">
-        <v>1611.420000</v>
+        <v>1611.42</v>
       </c>
       <c r="BV3" s="1">
-        <v>-833.096000</v>
+        <v>-833.096</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>29516.810253</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.199114</v>
+        <v>8.1991139999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1763.400000</v>
+        <v>1763.4</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1108.310000</v>
+        <v>-1108.31</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>29527.767870</v>
+        <v>29527.76787</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.202158</v>
+        <v>8.2021580000000007</v>
       </c>
       <c r="CE3" s="1">
-        <v>2183.760000</v>
+        <v>2183.7600000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1777.090000</v>
+        <v>-1777.09</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>29356.368367</v>
+        <v>29356.368366999999</v>
       </c>
       <c r="B4" s="1">
-        <v>8.154547</v>
+        <v>8.1545470000000009</v>
       </c>
       <c r="C4" s="1">
-        <v>1150.130000</v>
+        <v>1150.1300000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.494000</v>
+        <v>-260.49400000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>29366.738708</v>
+        <v>29366.738708000001</v>
       </c>
       <c r="G4" s="1">
-        <v>8.157427</v>
+        <v>8.1574270000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.730000</v>
+        <v>1171.73</v>
       </c>
       <c r="I4" s="1">
-        <v>-218.115000</v>
+        <v>-218.11500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>29376.907686</v>
+        <v>29376.907685999999</v>
       </c>
       <c r="L4" s="1">
-        <v>8.160252</v>
+        <v>8.1602519999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1199.090000</v>
+        <v>1199.0899999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.400000</v>
+        <v>-151.4</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>29387.426344</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.163174</v>
+        <v>8.1631739999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.850000</v>
+        <v>-128.85</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>29397.704938</v>
+        <v>29397.704937999999</v>
       </c>
       <c r="V4" s="1">
         <v>8.166029</v>
       </c>
       <c r="W4" s="1">
-        <v>1214.060000</v>
+        <v>1214.06</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.748000</v>
+        <v>-107.748</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>29407.910130</v>
+        <v>29407.91013</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.168864</v>
+        <v>8.1688639999999992</v>
       </c>
       <c r="AB4" s="1">
-        <v>1221.170000</v>
+        <v>1221.17</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.435700</v>
+        <v>-90.435699999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>29418.116800</v>
+        <v>29418.1168</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.171699</v>
+        <v>8.1716990000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.844800</v>
+        <v>-85.844800000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>29428.169250</v>
+        <v>29428.169249999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.174491</v>
+        <v>8.1744909999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.163600</v>
+        <v>-89.163600000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>29438.773221</v>
+        <v>29438.773220999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.177437</v>
+        <v>8.1774369999999994</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.072000</v>
+        <v>-101.072</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>29449.750151</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.180486</v>
+        <v>8.1804860000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.372000</v>
+        <v>-120.372</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>29460.411191</v>
+        <v>29460.411190999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.183448</v>
+        <v>8.1834480000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.816000</v>
+        <v>-137.816</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>29472.085000</v>
+        <v>29472.084999999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.186690</v>
+        <v>8.1866900000000005</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.500000</v>
+        <v>1298.5</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.711000</v>
+        <v>-219.71100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>29483.122765</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.189756</v>
+        <v>8.1897559999999991</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.370000</v>
+        <v>1367.37</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.397000</v>
+        <v>-356.39699999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>29494.284443</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.192857</v>
+        <v>8.1928570000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1480.590000</v>
+        <v>1480.59</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.793000</v>
+        <v>-579.79300000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>29506.209755</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.196169</v>
+        <v>8.1961689999999994</v>
       </c>
       <c r="BU4" s="1">
-        <v>1611.250000</v>
+        <v>1611.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-832.983000</v>
+        <v>-832.98299999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>29517.222470</v>
+        <v>29517.222470000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.199228</v>
+        <v>8.1992279999999997</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1763.390000</v>
+        <v>1763.39</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1108.460000</v>
+        <v>-1108.46</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>29528.617054</v>
+        <v>29528.617053999998</v>
       </c>
       <c r="CD4" s="1">
         <v>8.202394</v>
       </c>
       <c r="CE4" s="1">
-        <v>2181.180000</v>
+        <v>2181.1799999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1777.240000</v>
+        <v>-1777.24</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>29356.710097</v>
+        <v>29356.710096999999</v>
       </c>
       <c r="B5" s="1">
-        <v>8.154642</v>
+        <v>8.1546420000000008</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.300000</v>
+        <v>1150.3</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.325000</v>
+        <v>-260.32499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>29367.083954</v>
+        <v>29367.083954000002</v>
       </c>
       <c r="G5" s="1">
-        <v>8.157523</v>
+        <v>8.1575229999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>1171.410000</v>
+        <v>1171.4100000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.895000</v>
+        <v>-218.89500000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>29377.250917</v>
+        <v>29377.250917000001</v>
       </c>
       <c r="L5" s="1">
-        <v>8.160347</v>
+        <v>8.1603469999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.350000</v>
+        <v>1199.3499999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.166000</v>
+        <v>-151.166</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>29387.843976</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.163290</v>
+        <v>8.1632899999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.910000</v>
+        <v>1206.9100000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.831000</v>
+        <v>-128.83099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>29398.121082</v>
+        <v>29398.121082000001</v>
       </c>
       <c r="V5" s="1">
-        <v>8.166145</v>
+        <v>8.1661450000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.751000</v>
+        <v>-107.751</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>29408.187918</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.168941</v>
+        <v>8.1689410000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1221.280000</v>
+        <v>1221.28</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.550000</v>
+        <v>-90.55</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>29418.378687</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.171772</v>
+        <v>8.1717720000000007</v>
       </c>
       <c r="AG5" s="1">
-        <v>1225.730000</v>
+        <v>1225.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.869700</v>
+        <v>-85.869699999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>29428.515954</v>
+        <v>29428.515953999999</v>
       </c>
       <c r="AK5" s="1">
         <v>8.174588</v>
       </c>
       <c r="AL5" s="1">
-        <v>1232.640000</v>
+        <v>1232.6400000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.180200</v>
+        <v>-89.180199999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>29439.132292</v>
+        <v>29439.132291999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.177537</v>
+        <v>8.1775369999999992</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1240.500000</v>
+        <v>1240.5</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.057000</v>
+        <v>-101.057</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>29450.116693</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.180588</v>
+        <v>8.1805880000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.338000</v>
+        <v>-120.33799999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>29461.127880</v>
+        <v>29461.12788</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.183647</v>
+        <v>8.1836470000000006</v>
       </c>
       <c r="BA5" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.795000</v>
+        <v>-137.79499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>29472.474360</v>
+        <v>29472.47436</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.186798</v>
+        <v>8.1867979999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.480000</v>
+        <v>1298.48</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.705000</v>
+        <v>-219.70500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>29483.529689</v>
+        <v>29483.529688999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.189869</v>
+        <v>8.1898689999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.390000</v>
+        <v>1367.39</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.403000</v>
+        <v>-356.40300000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>29494.681242</v>
+        <v>29494.681241999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.192967</v>
+        <v>8.1929669999999994</v>
       </c>
       <c r="BP5" s="1">
-        <v>1480.550000</v>
+        <v>1480.55</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.789000</v>
+        <v>-579.78899999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>29506.928460</v>
+        <v>29506.928459999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.196369</v>
+        <v>8.1963690000000007</v>
       </c>
       <c r="BU5" s="1">
-        <v>1611.220000</v>
+        <v>1611.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-832.912000</v>
+        <v>-832.91200000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>29517.789853</v>
+        <v>29517.789852999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.199386</v>
+        <v>8.1993860000000005</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1763.400000</v>
+        <v>1763.4</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1108.280000</v>
+        <v>-1108.28</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>29528.849646</v>
+        <v>29528.849645999999</v>
       </c>
       <c r="CD5" s="1">
         <v>8.202458</v>
       </c>
       <c r="CE5" s="1">
-        <v>2182.040000</v>
+        <v>2182.04</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1779.490000</v>
+        <v>-1779.49</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>29357.063248</v>
+        <v>29357.063247999999</v>
       </c>
       <c r="B6" s="1">
-        <v>8.154740</v>
+        <v>8.1547400000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>1150.360000</v>
+        <v>1150.3599999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-260.574000</v>
+        <v>-260.57400000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>29367.427650</v>
+        <v>29367.427650000001</v>
       </c>
       <c r="G6" s="1">
-        <v>8.157619</v>
+        <v>8.1576190000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>1172.540000</v>
+        <v>1172.54</v>
       </c>
       <c r="I6" s="1">
-        <v>-218.203000</v>
+        <v>-218.203</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>29377.669045</v>
+        <v>29377.669044999999</v>
       </c>
       <c r="L6" s="1">
-        <v>8.160464</v>
+        <v>8.1604639999999993</v>
       </c>
       <c r="M6" s="1">
-        <v>1199.210000</v>
+        <v>1199.21</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.127000</v>
+        <v>-151.12700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>29388.137111</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.163371</v>
+        <v>8.1633709999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.880000</v>
+        <v>-128.88</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>29398.399835</v>
       </c>
       <c r="V6" s="1">
-        <v>8.166222</v>
+        <v>8.1662219999999994</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.721000</v>
+        <v>-107.721</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>29408.537102</v>
+        <v>29408.537101999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.169038</v>
+        <v>8.1690380000000005</v>
       </c>
       <c r="AB6" s="1">
-        <v>1221.110000</v>
+        <v>1221.1099999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.332400</v>
+        <v>-90.332400000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>29418.721958</v>
+        <v>29418.721957999998</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.171867</v>
+        <v>8.1718670000000007</v>
       </c>
       <c r="AG6" s="1">
-        <v>1225.720000</v>
+        <v>1225.72</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.897300</v>
+        <v>-85.897300000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>29428.866623</v>
+        <v>29428.866623000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.174685</v>
+        <v>8.1746850000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.150000</v>
+        <v>-89.15</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>29439.859774</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.177739</v>
+        <v>8.1777390000000008</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1240.500000</v>
+        <v>1240.5</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.060000</v>
+        <v>-101.06</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>29450.844858</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.180790</v>
+        <v>8.18079</v>
       </c>
       <c r="AV6" s="1">
-        <v>1250.360000</v>
+        <v>1250.3599999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.382000</v>
+        <v>-120.38200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>29461.486487</v>
+        <v>29461.486486999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.183746</v>
+        <v>8.1837459999999993</v>
       </c>
       <c r="BA6" s="1">
-        <v>1258.740000</v>
+        <v>1258.74</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.822000</v>
+        <v>-137.822</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>29472.837432</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.186899</v>
+        <v>8.1868990000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.460000</v>
+        <v>1298.46</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.706000</v>
+        <v>-219.70599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>29483.906015</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.189974</v>
+        <v>8.1899739999999994</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.360000</v>
+        <v>1367.36</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.399000</v>
+        <v>-356.399</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>29495.421782</v>
+        <v>29495.421782000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.193173</v>
+        <v>8.1931729999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1480.660000</v>
+        <v>1480.66</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.844000</v>
+        <v>-579.84400000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>29507.052468</v>
+        <v>29507.052468000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.196403</v>
+        <v>8.1964030000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1611.110000</v>
+        <v>1611.11</v>
       </c>
       <c r="BV6" s="1">
-        <v>-832.833000</v>
+        <v>-832.83299999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>29518.100843</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.199472</v>
+        <v>8.1994720000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1763.410000</v>
+        <v>1763.41</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1108.280000</v>
+        <v>-1108.28</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>29529.382844</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.202606</v>
+        <v>8.2026059999999994</v>
       </c>
       <c r="CE6" s="1">
-        <v>2183.070000</v>
+        <v>2183.0700000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1776.530000</v>
+        <v>-1776.53</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>29357.501217</v>
+        <v>29357.501217000001</v>
       </c>
       <c r="B7" s="1">
-        <v>8.154861</v>
+        <v>8.1548610000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>1150.250000</v>
+        <v>1150.25</v>
       </c>
       <c r="D7" s="1">
-        <v>-260.476000</v>
+        <v>-260.476</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>29367.839826</v>
+        <v>29367.839825999999</v>
       </c>
       <c r="G7" s="1">
-        <v>8.157733</v>
+        <v>8.1577330000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>1171.800000</v>
+        <v>1171.8</v>
       </c>
       <c r="I7" s="1">
-        <v>-218.568000</v>
+        <v>-218.56800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>29377.960692</v>
+        <v>29377.960692000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.160545</v>
+        <v>8.1605450000000008</v>
       </c>
       <c r="M7" s="1">
-        <v>1199.090000</v>
+        <v>1199.0899999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.582000</v>
+        <v>-151.58199999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>29388.485838</v>
+        <v>29388.485838000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.163468</v>
+        <v>8.1634679999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.940000</v>
+        <v>1206.94</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.872000</v>
+        <v>-128.87200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>29398.747033</v>
       </c>
       <c r="V7" s="1">
-        <v>8.166319</v>
+        <v>8.1663189999999997</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.990000</v>
+        <v>1213.99</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.768000</v>
+        <v>-107.768</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>29408.887276</v>
+        <v>29408.887276000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.169135</v>
+        <v>8.1691350000000007</v>
       </c>
       <c r="AB7" s="1">
-        <v>1221.330000</v>
+        <v>1221.33</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.474100</v>
+        <v>-90.474100000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>29419.405407</v>
+        <v>29419.405406999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.172057</v>
+        <v>8.1720570000000006</v>
       </c>
       <c r="AG7" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.847400</v>
+        <v>-85.847399999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>29429.561490</v>
+        <v>29429.56149</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.174878</v>
+        <v>8.1748779999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.170000</v>
+        <v>-89.17</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>29440.237411</v>
+        <v>29440.237410999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.177844</v>
+        <v>8.1778440000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.070000</v>
+        <v>-101.07</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>29451.234180</v>
+        <v>29451.234179999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.180898</v>
+        <v>8.1808979999999991</v>
       </c>
       <c r="AV7" s="1">
-        <v>1250.340000</v>
+        <v>1250.3399999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.353000</v>
+        <v>-120.35299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>29461.845590</v>
+        <v>29461.845590000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.183846</v>
+        <v>8.1838460000000008</v>
       </c>
       <c r="BA7" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.833000</v>
+        <v>-137.833</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>29473.506039</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.187085</v>
+        <v>8.1870849999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.440000</v>
+        <v>1298.44</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.710000</v>
+        <v>-219.71</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>29484.624856</v>
+        <v>29484.624855999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.190174</v>
+        <v>8.1901740000000007</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.380000</v>
+        <v>1367.38</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.399000</v>
+        <v>-356.399</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>29495.527945</v>
+        <v>29495.527945000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.193202</v>
+        <v>8.1932019999999994</v>
       </c>
       <c r="BP7" s="1">
-        <v>1480.540000</v>
+        <v>1480.54</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.817000</v>
+        <v>-579.81700000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>29507.490923</v>
+        <v>29507.490923000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.196525</v>
+        <v>8.1965249999999994</v>
       </c>
       <c r="BU7" s="1">
-        <v>1611.060000</v>
+        <v>1611.06</v>
       </c>
       <c r="BV7" s="1">
-        <v>-832.663000</v>
+        <v>-832.66300000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>29518.518971</v>
+        <v>29518.518971000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.199589</v>
+        <v>8.1995889999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1763.230000</v>
+        <v>1763.23</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1108.420000</v>
+        <v>-1108.42</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>29529.924476</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.202757</v>
+        <v>8.2027570000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2181.360000</v>
+        <v>2181.36</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1777.860000</v>
+        <v>-1777.86</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>29357.754176</v>
+        <v>29357.754175999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.154932</v>
+        <v>8.1549320000000005</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.300000</v>
+        <v>1150.3</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.617000</v>
+        <v>-260.61700000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>29368.137923</v>
+        <v>29368.137922999998</v>
       </c>
       <c r="G8" s="1">
-        <v>8.157816</v>
+        <v>8.1578160000000004</v>
       </c>
       <c r="H8" s="1">
-        <v>1171.800000</v>
+        <v>1171.8</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.732000</v>
+        <v>-217.732</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>29378.308886</v>
+        <v>29378.308885999999</v>
       </c>
       <c r="L8" s="1">
         <v>8.160641</v>
       </c>
       <c r="M8" s="1">
-        <v>1199.310000</v>
+        <v>1199.31</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.372000</v>
+        <v>-151.37200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>29388.833990</v>
+        <v>29388.833989999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.163565</v>
+        <v>8.1635650000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.900000</v>
+        <v>1206.9000000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.870000</v>
+        <v>-128.87</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>29399.086827</v>
+        <v>29399.086826999999</v>
       </c>
       <c r="V8" s="1">
-        <v>8.166413</v>
+        <v>8.1664130000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.776000</v>
+        <v>-107.776</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>29409.582667</v>
+        <v>29409.582666999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.169329</v>
+        <v>8.1693289999999994</v>
       </c>
       <c r="AB8" s="1">
-        <v>1221.280000</v>
+        <v>1221.28</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.481900</v>
+        <v>-90.481899999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>29419.752639</v>
+        <v>29419.752638999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.172154</v>
+        <v>8.1721540000000008</v>
       </c>
       <c r="AG8" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.862700</v>
+        <v>-85.862700000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>29429.914672</v>
+        <v>29429.914671999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.174976</v>
+        <v>8.1749759999999991</v>
       </c>
       <c r="AL8" s="1">
-        <v>1232.660000</v>
+        <v>1232.6600000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.142900</v>
+        <v>-89.142899999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>29440.599490</v>
+        <v>29440.599490000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.177944</v>
+        <v>8.1779440000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1240.470000</v>
+        <v>1240.47</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.067000</v>
+        <v>-101.06699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>29451.597786</v>
+        <v>29451.597785999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.180999</v>
+        <v>8.1809989999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.327000</v>
+        <v>-120.327</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>29462.516677</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.184032</v>
+        <v>8.1840320000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.840000</v>
+        <v>-137.84</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>29473.954422</v>
+        <v>29473.954421999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.187210</v>
+        <v>8.1872100000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.490000</v>
+        <v>1298.49</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.725000</v>
+        <v>-219.72499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>29485.028631</v>
+        <v>29485.028631000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.190286</v>
+        <v>8.1902860000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.380000</v>
+        <v>1367.38</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.384000</v>
+        <v>-356.38400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>29495.923722</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.193312</v>
+        <v>8.1933120000000006</v>
       </c>
       <c r="BP8" s="1">
-        <v>1480.610000</v>
+        <v>1480.61</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.790000</v>
+        <v>-579.79</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>29507.918969</v>
+        <v>29507.918968999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.196644</v>
+        <v>8.1966439999999992</v>
       </c>
       <c r="BU8" s="1">
-        <v>1611.160000</v>
+        <v>1611.16</v>
       </c>
       <c r="BV8" s="1">
-        <v>-832.582000</v>
+        <v>-832.58199999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>29518.943050</v>
+        <v>29518.943050000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.199706</v>
+        <v>8.1997060000000008</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1763.440000</v>
+        <v>1763.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1108.330000</v>
+        <v>-1108.33</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>29530.465611</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.202907</v>
+        <v>8.2029069999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>2183.560000</v>
+        <v>2183.56</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1778.470000</v>
+        <v>-1778.47</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>29358.094431</v>
+        <v>29358.094431000001</v>
       </c>
       <c r="B9" s="1">
-        <v>8.155026</v>
+        <v>8.1550259999999994</v>
       </c>
       <c r="C9" s="1">
-        <v>1150.460000</v>
+        <v>1150.46</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.486000</v>
+        <v>-260.48599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>29368.482880</v>
+        <v>29368.48288</v>
       </c>
       <c r="G9" s="1">
-        <v>8.157912</v>
+        <v>8.1579119999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.010000</v>
+        <v>1172.01</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.083000</v>
+        <v>-218.083</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>29378.656084</v>
+        <v>29378.656083999998</v>
       </c>
       <c r="L9" s="1">
-        <v>8.160738</v>
+        <v>8.1607380000000003</v>
       </c>
       <c r="M9" s="1">
-        <v>1199.310000</v>
+        <v>1199.31</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.103000</v>
+        <v>-151.10300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>29389.530869</v>
+        <v>29389.530868999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.163759</v>
+        <v>8.1637590000000007</v>
       </c>
       <c r="R9" s="1">
-        <v>1206.880000</v>
+        <v>1206.8800000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.845000</v>
+        <v>-128.845</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>29399.773784</v>
+        <v>29399.773784000001</v>
       </c>
       <c r="V9" s="1">
-        <v>8.166604</v>
+        <v>8.1666039999999995</v>
       </c>
       <c r="W9" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.698000</v>
+        <v>-107.69799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>29409.933802</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.169426</v>
+        <v>8.1694259999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>1221.110000</v>
+        <v>1221.1099999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.354600</v>
+        <v>-90.354600000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>29420.095837</v>
+        <v>29420.095837000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.172249</v>
+        <v>8.1722490000000008</v>
       </c>
       <c r="AG9" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.843200</v>
+        <v>-85.843199999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>29430.262336</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.175073</v>
+        <v>8.1750729999999994</v>
       </c>
       <c r="AL9" s="1">
-        <v>1232.640000</v>
+        <v>1232.6400000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.173700</v>
+        <v>-89.173699999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>29441.268561</v>
+        <v>29441.268561000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.178130</v>
+        <v>8.1781299999999995</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1240.470000</v>
+        <v>1240.47</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.078000</v>
+        <v>-101.078</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>29452.140903</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.181150</v>
+        <v>8.1811500000000006</v>
       </c>
       <c r="AV9" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.349000</v>
+        <v>-120.349</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>29462.921412</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.184145</v>
+        <v>8.1841449999999991</v>
       </c>
       <c r="BA9" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.792000</v>
+        <v>-137.792</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>29474.314517</v>
+        <v>29474.314516999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.187310</v>
+        <v>8.1873100000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.500000</v>
+        <v>1298.5</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.696000</v>
+        <v>-219.696</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>29485.406583</v>
@@ -2460,1268 +2876,1268 @@
         <v>8.190391</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.427000</v>
+        <v>-356.42700000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>29496.343832</v>
+        <v>29496.343831999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.193429</v>
+        <v>8.1934290000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1480.570000</v>
+        <v>1480.57</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.823000</v>
+        <v>-579.82299999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>29508.346552</v>
+        <v>29508.346551999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.196763</v>
+        <v>8.1967630000000007</v>
       </c>
       <c r="BU9" s="1">
-        <v>1611.210000</v>
+        <v>1611.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-832.531000</v>
+        <v>-832.53099999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>29519.367626</v>
+        <v>29519.367625999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.199824</v>
+        <v>8.1998239999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1763.420000</v>
+        <v>1763.42</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1108.230000</v>
+        <v>-1108.23</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>29531.001966</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.203056</v>
+        <v>8.2030560000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2182.140000</v>
+        <v>2182.14</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1776.570000</v>
+        <v>-1776.57</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>29358.438654</v>
+        <v>29358.438654000001</v>
       </c>
       <c r="B10" s="1">
-        <v>8.155122</v>
+        <v>8.1551220000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>1150.370000</v>
+        <v>1150.3699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-260.578000</v>
+        <v>-260.57799999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>29368.826368</v>
+        <v>29368.826367999998</v>
       </c>
       <c r="G10" s="1">
-        <v>8.158007</v>
+        <v>8.1580069999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.050000</v>
+        <v>1172.05</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.619000</v>
+        <v>-218.619</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>29379.350484</v>
+        <v>29379.350483999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.160931</v>
+        <v>8.1609309999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.180000</v>
+        <v>1199.18</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.167000</v>
+        <v>-151.167</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>29389.881059</v>
+        <v>29389.881058999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.163856</v>
+        <v>8.1638559999999991</v>
       </c>
       <c r="R10" s="1">
-        <v>1206.880000</v>
+        <v>1206.8800000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.814000</v>
+        <v>-128.81399999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>29400.118500</v>
+        <v>29400.1185</v>
       </c>
       <c r="V10" s="1">
-        <v>8.166700</v>
+        <v>8.1667000000000005</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.772000</v>
+        <v>-107.77200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>29410.281002</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.169523</v>
+        <v>8.1695229999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.365700</v>
+        <v>-90.365700000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>29420.751079</v>
+        <v>29420.751079000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.172431</v>
+        <v>8.1724309999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>1225.740000</v>
+        <v>1225.74</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.874200</v>
+        <v>-85.874200000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>29430.927999</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.175258</v>
+        <v>8.1752579999999995</v>
       </c>
       <c r="AL10" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.178700</v>
+        <v>-89.178700000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>29441.679285</v>
+        <v>29441.679284999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.178244</v>
+        <v>8.1782439999999994</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.063000</v>
+        <v>-101.063</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>29452.327394</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.181202</v>
+        <v>8.1812020000000008</v>
       </c>
       <c r="AV10" s="1">
-        <v>1250.370000</v>
+        <v>1250.3699999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.357000</v>
+        <v>-120.357</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>29463.303829</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.184251</v>
+        <v>8.1842509999999997</v>
       </c>
       <c r="BA10" s="1">
-        <v>1258.740000</v>
+        <v>1258.74</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.833000</v>
+        <v>-137.833</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>29474.679109</v>
+        <v>29474.679109000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.187411</v>
+        <v>8.1874110000000009</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.500000</v>
+        <v>1298.5</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.692000</v>
+        <v>-219.69200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>29485.827655</v>
+        <v>29485.827655000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.190508</v>
+        <v>8.1905079999999995</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.370000</v>
+        <v>1367.37</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.378000</v>
+        <v>-356.37799999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>29496.763479</v>
+        <v>29496.763479000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.193545</v>
+        <v>8.1935450000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1480.560000</v>
+        <v>1480.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.823000</v>
+        <v>-579.82299999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>29508.759688</v>
+        <v>29508.759687999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.196878</v>
+        <v>8.1968779999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1611.380000</v>
+        <v>1611.38</v>
       </c>
       <c r="BV10" s="1">
-        <v>-832.437000</v>
+        <v>-832.43700000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>29519.787776</v>
+        <v>29519.787776000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.199941</v>
+        <v>8.1999410000000008</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1763.340000</v>
+        <v>1763.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1108.260000</v>
+        <v>-1108.26</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>29531.542954</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.203206</v>
+        <v>8.2032059999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2182.270000</v>
+        <v>2182.27</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1779.390000</v>
+        <v>-1779.39</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>29359.119167</v>
+        <v>29359.119167000001</v>
       </c>
       <c r="B11" s="1">
-        <v>8.155311</v>
+        <v>8.1553109999999993</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.840000</v>
+        <v>1149.8399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-260.477000</v>
+        <v>-260.47699999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>29369.516305</v>
+        <v>29369.516305000001</v>
       </c>
       <c r="G11" s="1">
-        <v>8.158199</v>
+        <v>8.1581989999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1171.580000</v>
+        <v>1171.58</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.669000</v>
+        <v>-218.66900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>29379.698521</v>
+        <v>29379.698520999998</v>
       </c>
       <c r="L11" s="1">
-        <v>8.161027</v>
+        <v>8.1610270000000007</v>
       </c>
       <c r="M11" s="1">
-        <v>1199.250000</v>
+        <v>1199.25</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.308000</v>
+        <v>-151.30799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>29390.231220</v>
+        <v>29390.231220000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.163953</v>
+        <v>8.1639529999999993</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.857000</v>
+        <v>-128.857</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>29400.461704</v>
+        <v>29400.461704000001</v>
       </c>
       <c r="V11" s="1">
-        <v>8.166795</v>
+        <v>8.1667950000000005</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.677000</v>
+        <v>-107.67700000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>29410.936744</v>
+        <v>29410.936743999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.169705</v>
+        <v>8.1697050000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.383400</v>
+        <v>-90.383399999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>29421.127020</v>
+        <v>29421.12702</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.172535</v>
+        <v>8.1725349999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1225.710000</v>
+        <v>1225.71</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.904200</v>
+        <v>-85.904200000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>29431.304430</v>
+        <v>29431.30443</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.175362</v>
+        <v>8.1753619999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1232.610000</v>
+        <v>1232.6099999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.162800</v>
+        <v>-89.162800000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>29442.060672</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.178350</v>
+        <v>8.17835</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.061000</v>
+        <v>-101.06100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>29452.690477</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.181303</v>
+        <v>8.1813029999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.367000</v>
+        <v>-120.367</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>29463.662467</v>
+        <v>29463.662466999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.184351</v>
+        <v>8.1843509999999995</v>
       </c>
       <c r="BA11" s="1">
-        <v>1258.760000</v>
+        <v>1258.76</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.809000</v>
+        <v>-137.809</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>29475.079886</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.187522</v>
+        <v>8.1875219999999995</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.470000</v>
+        <v>1298.47</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.706000</v>
+        <v>-219.70599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>29486.155690</v>
+        <v>29486.15569</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.190599</v>
+        <v>8.1905990000000006</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.414000</v>
+        <v>-356.41399999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>29497.164215</v>
+        <v>29497.164215000001</v>
       </c>
       <c r="BO11" s="1">
         <v>8.193657</v>
       </c>
       <c r="BP11" s="1">
-        <v>1480.530000</v>
+        <v>1480.53</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.799000</v>
+        <v>-579.79899999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>29509.192234</v>
+        <v>29509.192233999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.196998</v>
+        <v>8.1969980000000007</v>
       </c>
       <c r="BU11" s="1">
-        <v>1611.330000</v>
+        <v>1611.33</v>
       </c>
       <c r="BV11" s="1">
-        <v>-832.309000</v>
+        <v>-832.30899999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>29520.234137</v>
+        <v>29520.234136999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.200065</v>
+        <v>8.2000650000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1763.380000</v>
+        <v>1763.38</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1108.300000</v>
+        <v>-1108.3</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>29532.085049</v>
+        <v>29532.085049000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.203357</v>
+        <v>8.2033570000000005</v>
       </c>
       <c r="CE11" s="1">
-        <v>2183.190000</v>
+        <v>2183.19</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1777.110000</v>
+        <v>-1777.11</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>29359.459917</v>
       </c>
       <c r="B12" s="1">
-        <v>8.155406</v>
+        <v>8.1554059999999993</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.230000</v>
+        <v>1150.23</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.483000</v>
+        <v>-260.483</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>29369.879377</v>
+        <v>29369.879377000001</v>
       </c>
       <c r="G12" s="1">
-        <v>8.158300</v>
+        <v>8.1583000000000006</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.990000</v>
+        <v>1171.99</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.528000</v>
+        <v>-218.52799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>29380.047363</v>
+        <v>29380.047363000001</v>
       </c>
       <c r="L12" s="1">
-        <v>8.161124</v>
+        <v>8.1611239999999992</v>
       </c>
       <c r="M12" s="1">
-        <v>1199.420000</v>
+        <v>1199.42</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.331000</v>
+        <v>-151.33099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>29390.899363</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.164139</v>
+        <v>8.1641390000000005</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.910000</v>
+        <v>1206.9100000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.861000</v>
+        <v>-128.86099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>29401.112950</v>
+        <v>29401.112949999999</v>
       </c>
       <c r="V12" s="1">
         <v>8.166976</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.980000</v>
+        <v>1213.98</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.667000</v>
+        <v>-107.667</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>29411.327562</v>
+        <v>29411.327561999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.169813</v>
+        <v>8.1698129999999995</v>
       </c>
       <c r="AB12" s="1">
-        <v>1221.240000</v>
+        <v>1221.24</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.509700</v>
+        <v>-90.509699999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>29421.469755</v>
+        <v>29421.469754999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.172630</v>
+        <v>8.1726299999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1225.710000</v>
+        <v>1225.71</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.901400</v>
+        <v>-85.901399999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>29431.652654</v>
+        <v>29431.652654000001</v>
       </c>
       <c r="AK12" s="1">
         <v>8.175459</v>
       </c>
       <c r="AL12" s="1">
-        <v>1232.630000</v>
+        <v>1232.6300000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.166000</v>
+        <v>-89.165999999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>29442.423744</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.178451</v>
+        <v>8.1784510000000008</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.057000</v>
+        <v>-101.057</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>29453.110081</v>
+        <v>29453.110080999999</v>
       </c>
       <c r="AU12" s="1">
         <v>8.181419</v>
       </c>
       <c r="AV12" s="1">
-        <v>1250.370000</v>
+        <v>1250.3699999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.372000</v>
+        <v>-120.372</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>29464.085059</v>
+        <v>29464.085059000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.184468</v>
+        <v>8.1844680000000007</v>
       </c>
       <c r="BA12" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.814000</v>
+        <v>-137.81399999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>29475.397285</v>
+        <v>29475.397284999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.187610</v>
+        <v>8.1876099999999994</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.470000</v>
+        <v>1298.47</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.715000</v>
+        <v>-219.715</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>29486.561237</v>
+        <v>29486.561237000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.190711</v>
+        <v>8.1907110000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.380000</v>
+        <v>1367.38</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.414000</v>
+        <v>-356.41399999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>29497.560054</v>
+        <v>29497.560054000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.193767</v>
+        <v>8.1937669999999994</v>
       </c>
       <c r="BP12" s="1">
-        <v>1480.640000</v>
+        <v>1480.64</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.783000</v>
+        <v>-579.78300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>29509.602887</v>
+        <v>29509.602887000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.197112</v>
+        <v>8.1971120000000006</v>
       </c>
       <c r="BU12" s="1">
-        <v>1611.550000</v>
+        <v>1611.55</v>
       </c>
       <c r="BV12" s="1">
-        <v>-832.281000</v>
+        <v>-832.28099999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>29520.655241</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.200182</v>
+        <v>8.2001819999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1763.370000</v>
+        <v>1763.37</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1108.430000</v>
+        <v>-1108.43</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>29532.624696</v>
+        <v>29532.624695999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.203507</v>
+        <v>8.2035070000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2181.380000</v>
+        <v>2181.38</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1778.590000</v>
+        <v>-1778.59</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>29359.805133</v>
+        <v>29359.805133000002</v>
       </c>
       <c r="B13" s="1">
-        <v>8.155501</v>
+        <v>8.1555009999999992</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.210000</v>
+        <v>1150.21</v>
       </c>
       <c r="D13" s="1">
-        <v>-260.384000</v>
+        <v>-260.38400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>29370.523678</v>
+        <v>29370.523678000001</v>
       </c>
       <c r="G13" s="1">
-        <v>8.158479</v>
+        <v>8.1584789999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.310000</v>
+        <v>1172.31</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.658000</v>
+        <v>-218.65799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>29380.711505</v>
+        <v>29380.711504999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.161309</v>
+        <v>8.1613089999999993</v>
       </c>
       <c r="M13" s="1">
-        <v>1199.160000</v>
+        <v>1199.1600000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.444000</v>
+        <v>-151.44399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>29391.274307</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.164243</v>
+        <v>8.1642430000000008</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.850000</v>
+        <v>1206.8499999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.851000</v>
+        <v>-128.851</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>29401.491893</v>
+        <v>29401.491892999999</v>
       </c>
       <c r="V13" s="1">
-        <v>8.167081</v>
+        <v>8.1670809999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.980000</v>
+        <v>1213.98</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.807000</v>
+        <v>-107.807</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>29411.676280</v>
+        <v>29411.67628</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.169910</v>
+        <v>8.1699099999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.380300</v>
+        <v>-90.380300000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>29421.812490</v>
+        <v>29421.81249</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.172726</v>
+        <v>8.1727260000000008</v>
       </c>
       <c r="AG13" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.874300</v>
+        <v>-85.874300000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>29432.000813</v>
+        <v>29432.000812999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.175556</v>
+        <v>8.1755560000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>1232.660000</v>
+        <v>1232.6600000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.150100</v>
+        <v>-89.150099999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>29442.861253</v>
+        <v>29442.861252999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.178573</v>
+        <v>8.1785730000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.058000</v>
+        <v>-101.05800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>29453.421537</v>
+        <v>29453.421536999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.181506</v>
+        <v>8.1815060000000006</v>
       </c>
       <c r="AV13" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.368000</v>
+        <v>-120.36799999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>29464.382626</v>
+        <v>29464.382625999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.184551</v>
+        <v>8.1845510000000008</v>
       </c>
       <c r="BA13" s="1">
-        <v>1258.770000</v>
+        <v>1258.77</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.810000</v>
+        <v>-137.81</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>29475.756690</v>
+        <v>29475.756689999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.187710</v>
+        <v>8.1877099999999992</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.480000</v>
+        <v>1298.48</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.705000</v>
+        <v>-219.70500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>29486.935222</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.190815</v>
+        <v>8.1908150000000006</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.416000</v>
+        <v>-356.416</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>29497.984598</v>
+        <v>29497.984597999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.193885</v>
+        <v>8.1938849999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1480.580000</v>
+        <v>1480.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.774000</v>
+        <v>-579.774</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>29510.033910</v>
+        <v>29510.033909999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.197232</v>
+        <v>8.1972319999999996</v>
       </c>
       <c r="BU13" s="1">
-        <v>1611.660000</v>
+        <v>1611.66</v>
       </c>
       <c r="BV13" s="1">
-        <v>-832.276000</v>
+        <v>-832.27599999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>29521.078327</v>
+        <v>29521.078326999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.200300</v>
+        <v>8.2003000000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1763.480000</v>
+        <v>1763.48</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1108.440000</v>
+        <v>-1108.44</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>29533.162359</v>
+        <v>29533.162359000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.203656</v>
+        <v>8.2036560000000005</v>
       </c>
       <c r="CE13" s="1">
-        <v>2183.390000</v>
+        <v>2183.39</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1778.950000</v>
+        <v>-1778.95</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>29360.454892</v>
+        <v>29360.454892000002</v>
       </c>
       <c r="B14" s="1">
-        <v>8.155682</v>
+        <v>8.1556820000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>1150.460000</v>
+        <v>1150.46</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.370000</v>
+        <v>-260.37</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>29370.900650</v>
+        <v>29370.90065</v>
       </c>
       <c r="G14" s="1">
-        <v>8.158584</v>
+        <v>8.1585839999999994</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.590000</v>
+        <v>1171.5899999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.613000</v>
+        <v>-218.613</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>29381.071120</v>
+        <v>29381.071120000001</v>
       </c>
       <c r="L14" s="1">
-        <v>8.161409</v>
+        <v>8.1614090000000008</v>
       </c>
       <c r="M14" s="1">
-        <v>1199.210000</v>
+        <v>1199.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.276000</v>
+        <v>-151.27600000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>29391.622994</v>
+        <v>29391.622994000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.164340</v>
+        <v>8.1643399999999993</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.890000</v>
+        <v>1206.8900000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.809000</v>
+        <v>-128.809</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>29401.824709</v>
       </c>
       <c r="V14" s="1">
-        <v>8.167174</v>
+        <v>8.1671739999999993</v>
       </c>
       <c r="W14" s="1">
-        <v>1214.030000</v>
+        <v>1214.03</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.646000</v>
+        <v>-107.646</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>29412.022952</v>
+        <v>29412.022951999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.170006</v>
+        <v>8.1700060000000008</v>
       </c>
       <c r="AB14" s="1">
-        <v>1221.170000</v>
+        <v>1221.17</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.376600</v>
+        <v>-90.376599999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>29422.232107</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.172842</v>
+        <v>8.1728419999999993</v>
       </c>
       <c r="AG14" s="1">
-        <v>1225.740000</v>
+        <v>1225.74</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.869700</v>
+        <v>-85.869699999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>29432.417987</v>
+        <v>29432.417987000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.175672</v>
+        <v>8.1756720000000005</v>
       </c>
       <c r="AL14" s="1">
-        <v>1232.690000</v>
+        <v>1232.69</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.177400</v>
+        <v>-89.177400000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>29443.143439</v>
+        <v>29443.143438999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.178651</v>
+        <v>8.1786510000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.083000</v>
+        <v>-101.083</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>29453.785137</v>
+        <v>29453.785136999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.181607</v>
+        <v>8.1816069999999996</v>
       </c>
       <c r="AV14" s="1">
-        <v>1250.360000</v>
+        <v>1250.3599999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.380000</v>
+        <v>-120.38</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>29464.742226</v>
+        <v>29464.742225999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.184651</v>
+        <v>8.1846510000000006</v>
       </c>
       <c r="BA14" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.796000</v>
+        <v>-137.79599999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>29476.118467</v>
@@ -3730,180 +4146,180 @@
         <v>8.187811</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.510000</v>
+        <v>1298.51</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.706000</v>
+        <v>-219.70599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>29487.685699</v>
+        <v>29487.685699000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.191024</v>
+        <v>8.1910240000000005</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.380000</v>
+        <v>1367.38</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.383000</v>
+        <v>-356.38299999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>29498.801013</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.194111</v>
+        <v>8.1941109999999995</v>
       </c>
       <c r="BP14" s="1">
-        <v>1480.630000</v>
+        <v>1480.63</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.753000</v>
+        <v>-579.75300000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>29510.461462</v>
+        <v>29510.461461999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.197350</v>
+        <v>8.1973500000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1611.700000</v>
+        <v>1611.7</v>
       </c>
       <c r="BV14" s="1">
-        <v>-832.193000</v>
+        <v>-832.19299999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>29521.525254</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.200424</v>
+        <v>8.2004239999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1763.410000</v>
+        <v>1763.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1108.400000</v>
+        <v>-1108.4000000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>29533.703495</v>
+        <v>29533.703495000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.203807</v>
+        <v>8.2038069999999994</v>
       </c>
       <c r="CE14" s="1">
-        <v>2181.870000</v>
+        <v>2181.87</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1776.760000</v>
+        <v>-1776.76</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>29360.831384</v>
+        <v>29360.831384000001</v>
       </c>
       <c r="B15" s="1">
-        <v>8.155786</v>
+        <v>8.1557860000000009</v>
       </c>
       <c r="C15" s="1">
-        <v>1150.350000</v>
+        <v>1150.3499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-260.393000</v>
+        <v>-260.39299999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>29371.247375</v>
+        <v>29371.247374999999</v>
       </c>
       <c r="G15" s="1">
-        <v>8.158680</v>
+        <v>8.1586800000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.970000</v>
+        <v>1171.97</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.006000</v>
+        <v>-218.006</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>29381.429712</v>
+        <v>29381.429712000001</v>
       </c>
       <c r="L15" s="1">
-        <v>8.161508</v>
+        <v>8.1615079999999995</v>
       </c>
       <c r="M15" s="1">
-        <v>1199.170000</v>
+        <v>1199.17</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.420000</v>
+        <v>-151.41999999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>29391.972179</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.164437</v>
+        <v>8.1644369999999995</v>
       </c>
       <c r="R15" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.813000</v>
+        <v>-128.81299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>29402.180341</v>
+        <v>29402.180340999999</v>
       </c>
       <c r="V15" s="1">
-        <v>8.167272</v>
+        <v>8.1672720000000005</v>
       </c>
       <c r="W15" s="1">
-        <v>1214.010000</v>
+        <v>1214.01</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.776000</v>
+        <v>-107.776</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>29412.454472</v>
+        <v>29412.454472000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.170126</v>
+        <v>8.1701259999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1221.200000</v>
+        <v>1221.2</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.455900</v>
+        <v>-90.4559</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>29422.502922</v>
@@ -3912,844 +4328,844 @@
         <v>8.172917</v>
       </c>
       <c r="AG15" s="1">
-        <v>1225.730000</v>
+        <v>1225.73</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.851700</v>
+        <v>-85.851699999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>29432.710096</v>
+        <v>29432.710095999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.175753</v>
+        <v>8.1757530000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>1232.660000</v>
+        <v>1232.6600000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.174200</v>
+        <v>-89.174199999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>29443.501054</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.178750</v>
+        <v>8.1787500000000009</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1240.450000</v>
+        <v>1240.45</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.075000</v>
+        <v>-101.075</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>29454.149200</v>
+        <v>29454.1492</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.181708</v>
+        <v>8.1817080000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>1250.380000</v>
+        <v>1250.3800000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.366000</v>
+        <v>-120.366</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>29465.098851</v>
+        <v>29465.098850999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.184750</v>
+        <v>8.1847499999999993</v>
       </c>
       <c r="BA15" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.851000</v>
+        <v>-137.851</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>29476.843618</v>
+        <v>29476.843617999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.188012</v>
+        <v>8.1880120000000005</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.470000</v>
+        <v>1298.47</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.709000</v>
+        <v>-219.709</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>29488.061635</v>
+        <v>29488.061634999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.191128</v>
+        <v>8.1911280000000009</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.400000</v>
+        <v>1367.4</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.401000</v>
+        <v>-356.40100000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>29499.218644</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.194227</v>
+        <v>8.1942269999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1480.560000</v>
+        <v>1480.56</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.846000</v>
+        <v>-579.846</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>29510.872646</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.197465</v>
+        <v>8.1974649999999993</v>
       </c>
       <c r="BU15" s="1">
-        <v>1611.710000</v>
+        <v>1611.71</v>
       </c>
       <c r="BV15" s="1">
-        <v>-832.223000</v>
+        <v>-832.22299999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>29522.263794</v>
+        <v>29522.263793999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.200629</v>
+        <v>8.2006289999999993</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1763.460000</v>
+        <v>1763.46</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1108.390000</v>
+        <v>-1108.3900000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>29534.240670</v>
+        <v>29534.240669999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.203956</v>
+        <v>8.2039559999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2182.140000</v>
+        <v>2182.14</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1779.250000</v>
+        <v>-1779.25</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>29361.171114</v>
+        <v>29361.171114000001</v>
       </c>
       <c r="B16" s="1">
-        <v>8.155881</v>
+        <v>8.1558810000000008</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-260.610000</v>
+        <v>-260.61</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>29371.590573</v>
+        <v>29371.590573000001</v>
       </c>
       <c r="G16" s="1">
-        <v>8.158775</v>
+        <v>8.1587750000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.400000</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.375000</v>
+        <v>-218.375</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>29381.773471</v>
       </c>
       <c r="L16" s="1">
-        <v>8.161604</v>
+        <v>8.1616040000000005</v>
       </c>
       <c r="M16" s="1">
-        <v>1199.340000</v>
+        <v>1199.3399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.487000</v>
+        <v>-151.48699999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>29392.400227</v>
+        <v>29392.400226999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.164556</v>
+        <v>8.1645559999999993</v>
       </c>
       <c r="R16" s="1">
-        <v>1206.990000</v>
+        <v>1206.99</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.840000</v>
+        <v>-128.84</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>29402.673872</v>
+        <v>29402.673871999999</v>
       </c>
       <c r="V16" s="1">
-        <v>8.167409</v>
+        <v>8.1674089999999993</v>
       </c>
       <c r="W16" s="1">
-        <v>1214.020000</v>
+        <v>1214.02</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.701000</v>
+        <v>-107.70099999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>29412.732760</v>
+        <v>29412.732759999999</v>
       </c>
       <c r="AA16" s="1">
         <v>8.170204</v>
       </c>
       <c r="AB16" s="1">
-        <v>1221.260000</v>
+        <v>1221.26</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.508500</v>
+        <v>-90.508499999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>29422.847641</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.173013</v>
+        <v>8.1730129999999992</v>
       </c>
       <c r="AG16" s="1">
-        <v>1225.750000</v>
+        <v>1225.75</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.867100</v>
+        <v>-85.867099999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>29433.055805</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.175849</v>
+        <v>8.1758489999999995</v>
       </c>
       <c r="AL16" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.171100</v>
+        <v>-89.171099999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>29443.864127</v>
+        <v>29443.864127000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.178851</v>
+        <v>8.1788509999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1240.460000</v>
+        <v>1240.46</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.060000</v>
+        <v>-101.06</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>29454.877828</v>
+        <v>29454.877828000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.181911</v>
+        <v>8.1819109999999995</v>
       </c>
       <c r="AV16" s="1">
-        <v>1250.380000</v>
+        <v>1250.3800000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.359000</v>
+        <v>-120.35899999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>29465.821026</v>
+        <v>29465.821026000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.184950</v>
+        <v>8.1849500000000006</v>
       </c>
       <c r="BA16" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.791000</v>
+        <v>-137.791</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>29477.203713</v>
+        <v>29477.203712999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.188112</v>
+        <v>8.1881120000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.510000</v>
+        <v>1298.51</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.721000</v>
+        <v>-219.721</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>29488.436611</v>
+        <v>29488.436611000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.191232</v>
+        <v>8.1912319999999994</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.396000</v>
+        <v>-356.39600000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>29499.612468</v>
+        <v>29499.612467999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.194337</v>
+        <v>8.1943370000000009</v>
       </c>
       <c r="BP16" s="1">
-        <v>1480.600000</v>
+        <v>1480.6</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.817000</v>
+        <v>-579.81700000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>29511.613701</v>
+        <v>29511.613700999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.197670</v>
+        <v>8.1976700000000005</v>
       </c>
       <c r="BU16" s="1">
-        <v>1611.820000</v>
+        <v>1611.82</v>
       </c>
       <c r="BV16" s="1">
-        <v>-832.313000</v>
+        <v>-832.31299999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>29522.391734</v>
+        <v>29522.391734000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.200664</v>
+        <v>8.2006639999999997</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1763.460000</v>
+        <v>1763.46</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1108.320000</v>
+        <v>-1108.32</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>29534.783782</v>
+        <v>29534.783781999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.204107</v>
+        <v>8.2041070000000005</v>
       </c>
       <c r="CE16" s="1">
-        <v>2183.290000</v>
+        <v>2183.29</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1776.470000</v>
+        <v>-1776.47</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>29361.514874</v>
       </c>
       <c r="B17" s="1">
-        <v>8.155976</v>
+        <v>8.1559760000000008</v>
       </c>
       <c r="C17" s="1">
-        <v>1150.510000</v>
+        <v>1150.51</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.906000</v>
+        <v>-260.90600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>29372.007212</v>
       </c>
       <c r="G17" s="1">
-        <v>8.158891</v>
+        <v>8.1588910000000006</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.090000</v>
+        <v>1172.0899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.329000</v>
+        <v>-218.32900000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>29382.204463</v>
+        <v>29382.204462999998</v>
       </c>
       <c r="L17" s="1">
-        <v>8.161723</v>
+        <v>8.1617230000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.250000</v>
+        <v>1199.25</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.251000</v>
+        <v>-151.251</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>29392.679969</v>
+        <v>29392.679969000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.164633</v>
+        <v>8.1646330000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.891000</v>
+        <v>-128.89099999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>29402.867797</v>
+        <v>29402.867796999999</v>
       </c>
       <c r="V17" s="1">
-        <v>8.167463</v>
+        <v>8.1674629999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>1214.010000</v>
+        <v>1214.01</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.724000</v>
+        <v>-107.724</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>29413.083894</v>
+        <v>29413.083893999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.170301</v>
+        <v>8.1703010000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.519700</v>
+        <v>-90.5197</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>29423.193354</v>
+        <v>29423.193353999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.173109</v>
+        <v>8.1731090000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1225.710000</v>
+        <v>1225.71</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.828900</v>
+        <v>-85.828900000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>29433.406476</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.175946</v>
+        <v>8.1759459999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.150900</v>
+        <v>-89.150899999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>29444.585309</v>
+        <v>29444.585308999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.179051</v>
+        <v>8.1790509999999994</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1240.500000</v>
+        <v>1240.5</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.062000</v>
+        <v>-101.062</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>29455.241855</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.182012</v>
+        <v>8.1820120000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>1250.360000</v>
+        <v>1250.3599999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.362000</v>
+        <v>-120.36199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>29466.196001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.185054</v>
+        <v>8.1850539999999992</v>
       </c>
       <c r="BA17" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.825000</v>
+        <v>-137.82499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>29477.565794</v>
+        <v>29477.565793999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.188213</v>
+        <v>8.1882129999999993</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.480000</v>
+        <v>1298.48</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.723000</v>
+        <v>-219.72300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>29489.124065</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.191423</v>
+        <v>8.1914230000000003</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.340000</v>
+        <v>1367.34</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.416000</v>
+        <v>-356.416</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>29500.356963</v>
+        <v>29500.356962999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.194544</v>
+        <v>8.1945440000000005</v>
       </c>
       <c r="BP17" s="1">
-        <v>1480.650000</v>
+        <v>1480.65</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.855000</v>
+        <v>-579.85500000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>29511.731718</v>
+        <v>29511.731717999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.197703</v>
+        <v>8.1977030000000006</v>
       </c>
       <c r="BU17" s="1">
-        <v>1611.920000</v>
+        <v>1611.92</v>
       </c>
       <c r="BV17" s="1">
-        <v>-832.287000</v>
+        <v>-832.28700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>29522.816310</v>
+        <v>29522.816309999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.200782</v>
+        <v>8.2007820000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1763.340000</v>
+        <v>1763.34</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1108.230000</v>
+        <v>-1108.23</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>29535.321972</v>
+        <v>29535.321972000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.204256</v>
+        <v>8.2042560000000009</v>
       </c>
       <c r="CE17" s="1">
-        <v>2181.520000</v>
+        <v>2181.52</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1778.060000</v>
+        <v>-1778.06</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>29361.941402</v>
       </c>
       <c r="B18" s="1">
-        <v>8.156095</v>
+        <v>8.1560950000000005</v>
       </c>
       <c r="C18" s="1">
-        <v>1150.270000</v>
+        <v>1150.27</v>
       </c>
       <c r="D18" s="1">
-        <v>-260.546000</v>
+        <v>-260.54599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>29372.286460</v>
+        <v>29372.286459999999</v>
       </c>
       <c r="G18" s="1">
-        <v>8.158968</v>
+        <v>8.1589679999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.910000</v>
+        <v>1171.9100000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-218.752000</v>
+        <v>-218.75200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>29382.480744</v>
       </c>
       <c r="L18" s="1">
-        <v>8.161800</v>
+        <v>8.1617999999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>1199.270000</v>
+        <v>1199.27</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.243000</v>
+        <v>-151.24299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>29393.029153</v>
+        <v>29393.029152999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.164730</v>
+        <v>8.1647300000000005</v>
       </c>
       <c r="R18" s="1">
-        <v>1206.930000</v>
+        <v>1206.93</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.914000</v>
+        <v>-128.91399999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>29403.212515</v>
+        <v>29403.212514999999</v>
       </c>
       <c r="V18" s="1">
-        <v>8.167559</v>
+        <v>8.1675590000000007</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.990000</v>
+        <v>1213.99</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.640000</v>
+        <v>-107.64</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>29413.429607</v>
+        <v>29413.429606999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.170397</v>
+        <v>8.1703969999999995</v>
       </c>
       <c r="AB18" s="1">
-        <v>1221.240000</v>
+        <v>1221.24</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.443900</v>
+        <v>-90.443899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>29423.875384</v>
+        <v>29423.875383999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.173299</v>
+        <v>8.1732990000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1225.740000</v>
+        <v>1225.74</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.859200</v>
+        <v>-85.859200000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>29434.101893</v>
+        <v>29434.101892999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.176139</v>
+        <v>8.1761389999999992</v>
       </c>
       <c r="AL18" s="1">
-        <v>1232.670000</v>
+        <v>1232.67</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.183600</v>
+        <v>-89.183599999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>29444.941934</v>
+        <v>29444.941933999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.179151</v>
+        <v>8.1791509999999992</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1240.500000</v>
+        <v>1240.5</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.065000</v>
+        <v>-101.065</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>29455.607904</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.182113</v>
+        <v>8.1821129999999993</v>
       </c>
       <c r="AV18" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.387000</v>
+        <v>-120.387</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>29466.577919</v>
+        <v>29466.577918999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.185161</v>
+        <v>8.1851610000000008</v>
       </c>
       <c r="BA18" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.815000</v>
+        <v>-137.815</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>29478.248785</v>
@@ -4758,739 +5174,739 @@
         <v>8.188402</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.500000</v>
+        <v>1298.5</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.718000</v>
+        <v>-219.71799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>29489.597746</v>
+        <v>29489.597745999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.191555</v>
+        <v>8.1915549999999993</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.350000</v>
+        <v>1367.35</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.372000</v>
+        <v>-356.37200000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>29500.865362</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.194685</v>
+        <v>8.1946849999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1480.570000</v>
+        <v>1480.57</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.792000</v>
+        <v>-579.79200000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>29512.171667</v>
+        <v>29512.171666999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.197825</v>
+        <v>8.1978249999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1611.950000</v>
+        <v>1611.95</v>
       </c>
       <c r="BV18" s="1">
-        <v>-832.308000</v>
+        <v>-832.30799999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>29523.233940</v>
+        <v>29523.233939999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.200898</v>
+        <v>8.2008980000000005</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1763.390000</v>
+        <v>1763.39</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1108.360000</v>
+        <v>-1108.3599999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>29535.862084</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.204406</v>
+        <v>8.2044060000000005</v>
       </c>
       <c r="CE18" s="1">
-        <v>2183.740000</v>
+        <v>2183.7399999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1778.490000</v>
+        <v>-1778.49</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>29362.216869</v>
       </c>
       <c r="B19" s="1">
-        <v>8.156171</v>
+        <v>8.1561710000000005</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.260000</v>
+        <v>1150.26</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.545000</v>
+        <v>-260.54500000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>29372.632172</v>
+        <v>29372.632172000001</v>
       </c>
       <c r="G19" s="1">
-        <v>8.159064</v>
+        <v>8.1590640000000008</v>
       </c>
       <c r="H19" s="1">
-        <v>1171.930000</v>
+        <v>1171.93</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.758000</v>
+        <v>-218.75800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>29382.821982</v>
+        <v>29382.821982000001</v>
       </c>
       <c r="L19" s="1">
-        <v>8.161895</v>
+        <v>8.1618949999999995</v>
       </c>
       <c r="M19" s="1">
-        <v>1199.630000</v>
+        <v>1199.6300000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.196000</v>
+        <v>-151.196</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>29393.377344</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.164827</v>
+        <v>8.1648270000000007</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.890000</v>
+        <v>1206.8900000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.892000</v>
+        <v>-128.892</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>29403.897986</v>
       </c>
       <c r="V19" s="1">
-        <v>8.167749</v>
+        <v>8.1677490000000006</v>
       </c>
       <c r="W19" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.759000</v>
+        <v>-107.759</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>29414.127478</v>
+        <v>29414.127477999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.170591</v>
+        <v>8.1705909999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.340200</v>
+        <v>-90.340199999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>29424.221560</v>
+        <v>29424.221560000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.173395</v>
+        <v>8.1733949999999993</v>
       </c>
       <c r="AG19" s="1">
-        <v>1225.740000</v>
+        <v>1225.74</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.883600</v>
+        <v>-85.883600000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>29434.455514</v>
+        <v>29434.455514000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.176238</v>
+        <v>8.1762379999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.154300</v>
+        <v>-89.154300000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>29445.303051</v>
+        <v>29445.303050999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.179251</v>
+        <v>8.1792510000000007</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.053000</v>
+        <v>-101.053</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>29456.293901</v>
+        <v>29456.293901000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.182304</v>
+        <v>8.1823040000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1250.370000</v>
+        <v>1250.3699999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.380000</v>
+        <v>-120.38</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>29467.243054</v>
+        <v>29467.243053999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.185345</v>
+        <v>8.1853449999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1258.720000</v>
+        <v>1258.72</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.810000</v>
+        <v>-137.81</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>29478.673131</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.188520</v>
+        <v>8.1885200000000005</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.500000</v>
+        <v>1298.5</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.698000</v>
+        <v>-219.69800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>29489.971741</v>
+        <v>29489.971741000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.191659</v>
+        <v>8.1916589999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.420000</v>
+        <v>-356.42</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>29501.274067</v>
+        <v>29501.274066999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.194798</v>
+        <v>8.1947980000000005</v>
       </c>
       <c r="BP19" s="1">
-        <v>1480.600000</v>
+        <v>1480.6</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.798000</v>
+        <v>-579.798</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>29512.582850</v>
+        <v>29512.582849999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.197940</v>
+        <v>8.1979399999999991</v>
       </c>
       <c r="BU19" s="1">
-        <v>1612.010000</v>
+        <v>1612.01</v>
       </c>
       <c r="BV19" s="1">
-        <v>-832.425000</v>
+        <v>-832.42499999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>29523.679380</v>
+        <v>29523.679380000001</v>
       </c>
       <c r="BY19" s="1">
         <v>8.201022</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1763.430000</v>
+        <v>1763.43</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1108.390000</v>
+        <v>-1108.3900000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>29536.405235</v>
+        <v>29536.405234999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.204557</v>
+        <v>8.2045569999999994</v>
       </c>
       <c r="CE19" s="1">
-        <v>2182.010000</v>
+        <v>2182.0100000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1776.940000</v>
+        <v>-1776.94</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>29362.558462</v>
+        <v>29362.558462000001</v>
       </c>
       <c r="B20" s="1">
-        <v>8.156266</v>
+        <v>8.1562660000000005</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.920000</v>
+        <v>1149.92</v>
       </c>
       <c r="D20" s="1">
-        <v>-260.269000</v>
+        <v>-260.26900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>29372.976398</v>
+        <v>29372.976397999999</v>
       </c>
       <c r="G20" s="1">
-        <v>8.159160</v>
+        <v>8.15916</v>
       </c>
       <c r="H20" s="1">
-        <v>1171.360000</v>
+        <v>1171.3599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.570000</v>
+        <v>-218.57</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>29383.171693</v>
       </c>
       <c r="L20" s="1">
-        <v>8.161992</v>
+        <v>8.1619919999999997</v>
       </c>
       <c r="M20" s="1">
-        <v>1199.000000</v>
+        <v>1199</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.126000</v>
+        <v>-151.126</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>29394.076704</v>
+        <v>29394.076703999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.165021</v>
+        <v>8.1650209999999994</v>
       </c>
       <c r="R20" s="1">
-        <v>1206.890000</v>
+        <v>1206.8900000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.783000</v>
+        <v>-128.78299999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>29404.242242</v>
       </c>
       <c r="V20" s="1">
-        <v>8.167845</v>
+        <v>8.1678449999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.764000</v>
+        <v>-107.764</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>29414.474212</v>
+        <v>29414.474212000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.170687</v>
+        <v>8.1706869999999991</v>
       </c>
       <c r="AB20" s="1">
-        <v>1221.280000</v>
+        <v>1221.28</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.366100</v>
+        <v>-90.366100000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>29424.564296</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.173490</v>
+        <v>8.1734899999999993</v>
       </c>
       <c r="AG20" s="1">
-        <v>1225.660000</v>
+        <v>1225.6600000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.856700</v>
+        <v>-85.856700000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>29434.803707</v>
+        <v>29434.803706999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.176334</v>
+        <v>8.1763340000000007</v>
       </c>
       <c r="AL20" s="1">
-        <v>1232.640000</v>
+        <v>1232.6400000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.161600</v>
+        <v>-89.161600000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>29445.972619</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.179437</v>
+        <v>8.1794370000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1240.470000</v>
+        <v>1240.47</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.079000</v>
+        <v>-101.07899999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>29456.700589</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.182417</v>
+        <v>8.1824169999999992</v>
       </c>
       <c r="AV20" s="1">
-        <v>1250.380000</v>
+        <v>1250.3800000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.341000</v>
+        <v>-120.34099999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>29467.657214</v>
+        <v>29467.657213999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.185460</v>
+        <v>8.1854600000000008</v>
       </c>
       <c r="BA20" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.807000</v>
+        <v>-137.80699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>29479.036432</v>
+        <v>29479.036432000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.188621</v>
+        <v>8.1886209999999995</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.490000</v>
+        <v>1298.49</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.733000</v>
+        <v>-219.733</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>29490.350176</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.191764</v>
+        <v>8.1917639999999992</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.380000</v>
+        <v>1367.38</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.411000</v>
+        <v>-356.411</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>29501.847972</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.194958</v>
+        <v>8.1949579999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1480.610000</v>
+        <v>1480.61</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.842000</v>
+        <v>-579.84199999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>29513.013378</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.198059</v>
+        <v>8.1980590000000007</v>
       </c>
       <c r="BU20" s="1">
-        <v>1612.030000</v>
+        <v>1612.03</v>
       </c>
       <c r="BV20" s="1">
-        <v>-832.442000</v>
+        <v>-832.44200000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>29524.099466</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.201139</v>
+        <v>8.2011389999999995</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1763.450000</v>
+        <v>1763.45</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1108.330000</v>
+        <v>-1108.33</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>29536.943893</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.204707</v>
+        <v>8.2047070000000009</v>
       </c>
       <c r="CE20" s="1">
-        <v>2182.130000</v>
+        <v>2182.13</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1779.820000</v>
+        <v>-1779.82</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>29362.898682</v>
+        <v>29362.898681999999</v>
       </c>
       <c r="B21" s="1">
-        <v>8.156361</v>
+        <v>8.1563610000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>1150.100000</v>
+        <v>1150.0999999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.529000</v>
+        <v>-260.529</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>29373.664346</v>
+        <v>29373.664346000001</v>
       </c>
       <c r="G21" s="1">
-        <v>8.159351</v>
+        <v>8.1593509999999991</v>
       </c>
       <c r="H21" s="1">
-        <v>1172.170000</v>
+        <v>1172.17</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.393000</v>
+        <v>-218.393</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>29383.863117</v>
+        <v>29383.863117000001</v>
       </c>
       <c r="L21" s="1">
-        <v>8.162184</v>
+        <v>8.1621839999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.670000</v>
+        <v>1199.67</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.088000</v>
+        <v>-151.08799999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>29394.422448</v>
+        <v>29394.422448000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.165117</v>
+        <v>8.1651170000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.960000</v>
+        <v>1206.96</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.795000</v>
+        <v>-128.79499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>29404.587954</v>
+        <v>29404.587953999999</v>
       </c>
       <c r="V21" s="1">
-        <v>8.167941</v>
+        <v>8.1679410000000008</v>
       </c>
       <c r="W21" s="1">
-        <v>1214.040000</v>
+        <v>1214.04</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.661000</v>
+        <v>-107.661</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>29414.822372</v>
+        <v>29414.822371999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.170784</v>
+        <v>8.1707839999999994</v>
       </c>
       <c r="AB21" s="1">
-        <v>1221.180000</v>
+        <v>1221.18</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.454000</v>
+        <v>-90.453999999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>29425.220038</v>
+        <v>29425.220037999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.173672</v>
+        <v>8.1736719999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>1225.680000</v>
+        <v>1225.68</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.916200</v>
+        <v>-85.916200000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>29435.549203</v>
+        <v>29435.549202999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.176541</v>
+        <v>8.1765410000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>1232.670000</v>
+        <v>1232.67</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.153600</v>
+        <v>-89.153599999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>29446.415050</v>
+        <v>29446.41505</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.179560</v>
+        <v>8.1795600000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1240.480000</v>
+        <v>1240.48</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.078000</v>
+        <v>-101.078</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>29457.065682</v>
@@ -5499,1405 +5915,1406 @@
         <v>8.182518</v>
       </c>
       <c r="AV21" s="1">
-        <v>1250.380000</v>
+        <v>1250.3800000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.392000</v>
+        <v>-120.392</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>29468.034670</v>
+        <v>29468.034670000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.185565</v>
+        <v>8.1855650000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.837000</v>
+        <v>-137.83699999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>29479.396036</v>
+        <v>29479.396035999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.188721</v>
+        <v>8.1887209999999993</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.500000</v>
+        <v>1298.5</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.701000</v>
+        <v>-219.70099999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>29490.771787</v>
+        <v>29490.771787000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.191881</v>
+        <v>8.1918810000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.370000</v>
+        <v>1367.37</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.372000</v>
+        <v>-356.37200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>29502.091509</v>
+        <v>29502.091509000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.195025</v>
+        <v>8.1950249999999993</v>
       </c>
       <c r="BP21" s="1">
-        <v>1480.580000</v>
+        <v>1480.58</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.838000</v>
+        <v>-579.83799999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>29513.441427</v>
+        <v>29513.441427000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.198178</v>
+        <v>8.1981780000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1612.090000</v>
+        <v>1612.09</v>
       </c>
       <c r="BV21" s="1">
-        <v>-832.598000</v>
+        <v>-832.59799999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>29524.524035</v>
+        <v>29524.524034999999</v>
       </c>
       <c r="BY21" s="1">
         <v>8.201257</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1763.320000</v>
+        <v>1763.32</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1108.340000</v>
+        <v>-1108.3399999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>29537.485521</v>
+        <v>29537.485520999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.204857</v>
+        <v>8.2048570000000005</v>
       </c>
       <c r="CE21" s="1">
-        <v>2182.920000</v>
+        <v>2182.92</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1776.980000</v>
+        <v>-1776.98</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>29363.583444</v>
       </c>
       <c r="B22" s="1">
-        <v>8.156551</v>
+        <v>8.1565510000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.080000</v>
+        <v>1150.08</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.505000</v>
+        <v>-260.505</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>29374.009099</v>
+        <v>29374.009098999999</v>
       </c>
       <c r="G22" s="1">
-        <v>8.159447</v>
+        <v>8.1594470000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.160000</v>
+        <v>1172.1600000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.808000</v>
+        <v>-218.80799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>29384.210780</v>
+        <v>29384.210780000001</v>
       </c>
       <c r="L22" s="1">
-        <v>8.162281</v>
+        <v>8.1622810000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1199.080000</v>
+        <v>1199.08</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.351000</v>
+        <v>-151.351</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>29394.772592</v>
+        <v>29394.772592000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.165215</v>
+        <v>8.1652149999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1206.980000</v>
+        <v>1206.98</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.855000</v>
+        <v>-128.85499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>29405.246414</v>
+        <v>29405.246414000001</v>
       </c>
       <c r="V22" s="1">
-        <v>8.168124</v>
+        <v>8.1681240000000006</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.970000</v>
+        <v>1213.97</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.709000</v>
+        <v>-107.709</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>29415.474115</v>
+        <v>29415.474115000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.170965</v>
+        <v>8.1709650000000007</v>
       </c>
       <c r="AB22" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.474900</v>
+        <v>-90.474900000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>29425.593990</v>
+        <v>29425.593990000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.173776</v>
+        <v>8.1737760000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1225.730000</v>
+        <v>1225.73</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.911800</v>
+        <v>-85.911799999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>29435.847288</v>
+        <v>29435.847288000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.176624</v>
+        <v>8.1766240000000003</v>
       </c>
       <c r="AL22" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.166400</v>
+        <v>-89.166399999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>29446.773657</v>
+        <v>29446.773657000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>8.179659</v>
+        <v>8.1796589999999991</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1240.460000</v>
+        <v>1240.46</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.068000</v>
+        <v>-101.068</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>29457.429212</v>
+        <v>29457.429211999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.182619</v>
+        <v>8.1826190000000008</v>
       </c>
       <c r="AV22" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.381000</v>
+        <v>-120.381</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>29468.710221</v>
+        <v>29468.710221000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.185753</v>
+        <v>8.1857530000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1258.750000</v>
+        <v>1258.75</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.826000</v>
+        <v>-137.82599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>29479.831054</v>
+        <v>29479.831053999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.188842</v>
+        <v>8.1888419999999993</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.490000</v>
+        <v>1298.49</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.715000</v>
+        <v>-219.715</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>29491.127936</v>
+        <v>29491.127936000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.191980</v>
+        <v>8.1919799999999992</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.360000</v>
+        <v>1367.36</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.406000</v>
+        <v>-356.40600000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>29502.489264</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.195136</v>
+        <v>8.1951359999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1480.620000</v>
+        <v>1480.62</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.801000</v>
+        <v>-579.80100000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>29513.853213</v>
+        <v>29513.853212999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.198293</v>
+        <v>8.1982929999999996</v>
       </c>
       <c r="BU22" s="1">
-        <v>1612.110000</v>
+        <v>1612.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-832.622000</v>
+        <v>-832.62199999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>29524.971960</v>
+        <v>29524.971959999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.201381</v>
+        <v>8.2013809999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1763.210000</v>
+        <v>1763.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1108.370000</v>
+        <v>-1108.3699999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>29538.023650</v>
+        <v>29538.023649999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.205007</v>
+        <v>8.2050070000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2181.080000</v>
+        <v>2181.08</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1778.500000</v>
+        <v>-1778.5</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>29363.925399</v>
       </c>
       <c r="B23" s="1">
-        <v>8.156646</v>
+        <v>8.1566460000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>1150.310000</v>
+        <v>1150.31</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.580000</v>
+        <v>-260.58</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>29374.356265</v>
+        <v>29374.356264999999</v>
       </c>
       <c r="G23" s="1">
-        <v>8.159543</v>
+        <v>8.1595429999999993</v>
       </c>
       <c r="H23" s="1">
-        <v>1171.840000</v>
+        <v>1171.8399999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.653000</v>
+        <v>-218.65299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>29384.555997</v>
+        <v>29384.555996999999</v>
       </c>
       <c r="L23" s="1">
-        <v>8.162377</v>
+        <v>8.1623769999999993</v>
       </c>
       <c r="M23" s="1">
-        <v>1199.240000</v>
+        <v>1199.24</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.380000</v>
+        <v>-151.38</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>29395.441728</v>
+        <v>29395.441728000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.165400</v>
+        <v>8.1654</v>
       </c>
       <c r="R23" s="1">
-        <v>1206.930000</v>
+        <v>1206.93</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.905000</v>
+        <v>-128.905</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>29405.623568</v>
+        <v>29405.623567999999</v>
       </c>
       <c r="V23" s="1">
-        <v>8.168229</v>
+        <v>8.1682290000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1214.050000</v>
+        <v>1214.05</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.754000</v>
+        <v>-107.754</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>29415.868435</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.171075</v>
+        <v>8.1710750000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1221.230000</v>
+        <v>1221.23</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.458500</v>
+        <v>-90.458500000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>29425.938247</v>
+        <v>29425.938246999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.173872</v>
+        <v>8.1738719999999994</v>
       </c>
       <c r="AG23" s="1">
-        <v>1225.690000</v>
+        <v>1225.69</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.845800</v>
+        <v>-85.845799999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>29436.195481</v>
+        <v>29436.195480999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.176721</v>
+        <v>8.1767210000000006</v>
       </c>
       <c r="AL23" s="1">
-        <v>1232.650000</v>
+        <v>1232.6500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.173600</v>
+        <v>-89.173599999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>29447.132762</v>
+        <v>29447.132762000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.179759</v>
+        <v>8.1797590000000007</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1240.460000</v>
+        <v>1240.46</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.058000</v>
+        <v>-101.05800000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>29457.849820</v>
+        <v>29457.849819999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.182736</v>
+        <v>8.1827360000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.360000</v>
+        <v>-120.36</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>29469.132353</v>
+        <v>29469.132353000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.185870</v>
+        <v>8.1858699999999995</v>
       </c>
       <c r="BA23" s="1">
-        <v>1258.770000</v>
+        <v>1258.77</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.843000</v>
+        <v>-137.84299999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>29480.119197</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.188922</v>
+        <v>8.1889219999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.470000</v>
+        <v>1298.47</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.720000</v>
+        <v>-219.72</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>29491.501390</v>
+        <v>29491.501390000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.192084</v>
+        <v>8.1920839999999995</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.380000</v>
+        <v>1367.38</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.416000</v>
+        <v>-356.416</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>29502.909410</v>
+        <v>29502.90941</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.195253</v>
+        <v>8.1952529999999992</v>
       </c>
       <c r="BP23" s="1">
-        <v>1480.560000</v>
+        <v>1480.56</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.807000</v>
+        <v>-579.80700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>29514.285616</v>
+        <v>29514.285616000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.198413</v>
+        <v>8.1984130000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>1612.130000</v>
+        <v>1612.13</v>
       </c>
       <c r="BV23" s="1">
-        <v>-832.710000</v>
+        <v>-832.71</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>29525.402946</v>
+        <v>29525.402945999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.201501</v>
+        <v>8.2015010000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1763.530000</v>
+        <v>1763.53</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1108.410000</v>
+        <v>-1108.4100000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>29538.566274</v>
+        <v>29538.566274000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.205157</v>
+        <v>8.2051569999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2183.390000</v>
+        <v>2183.39</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1778.520000</v>
+        <v>-1778.52</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>29364.270615</v>
+        <v>29364.270615000001</v>
       </c>
       <c r="B24" s="1">
-        <v>8.156742</v>
+        <v>8.1567419999999995</v>
       </c>
       <c r="C24" s="1">
-        <v>1150.360000</v>
+        <v>1150.3599999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.710000</v>
+        <v>-260.70999999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>29375.005033</v>
+        <v>29375.005033000001</v>
       </c>
       <c r="G24" s="1">
-        <v>8.159724</v>
+        <v>8.1597240000000006</v>
       </c>
       <c r="H24" s="1">
-        <v>1171.890000</v>
+        <v>1171.8900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.806000</v>
+        <v>-218.80600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>29385.215676</v>
       </c>
       <c r="L24" s="1">
-        <v>8.162560</v>
+        <v>8.1625599999999991</v>
       </c>
       <c r="M24" s="1">
-        <v>1199.230000</v>
+        <v>1199.23</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.204000</v>
+        <v>-151.20400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>29395.817693</v>
+        <v>29395.817693000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.165505</v>
+        <v>8.1655049999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.860000</v>
+        <v>1206.8599999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.910000</v>
+        <v>-128.91</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>29405.971760</v>
+        <v>29405.97176</v>
       </c>
       <c r="V24" s="1">
-        <v>8.168325</v>
+        <v>8.1683249999999994</v>
       </c>
       <c r="W24" s="1">
-        <v>1214.000000</v>
+        <v>1214</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.706000</v>
+        <v>-107.706</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>29416.218610</v>
+        <v>29416.21861</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.171172</v>
+        <v>8.1711720000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1221.310000</v>
+        <v>1221.31</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.370400</v>
+        <v>-90.370400000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>29426.287892</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.173969</v>
+        <v>8.1739689999999996</v>
       </c>
       <c r="AG24" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.926500</v>
+        <v>-85.926500000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>29436.612158</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.176837</v>
+        <v>8.1768370000000008</v>
       </c>
       <c r="AL24" s="1">
-        <v>1232.660000</v>
+        <v>1232.6600000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.164400</v>
+        <v>-89.164400000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>29447.554859</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.179876</v>
+        <v>8.1798760000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1240.490000</v>
+        <v>1240.49</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.066000</v>
+        <v>-101.066</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>29458.161344</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.182823</v>
+        <v>8.1828230000000008</v>
       </c>
       <c r="AV24" s="1">
-        <v>1250.350000</v>
+        <v>1250.3499999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.373000</v>
+        <v>-120.373</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>29469.490667</v>
+        <v>29469.490666999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.185970</v>
+        <v>8.1859699999999993</v>
       </c>
       <c r="BA24" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.831000</v>
+        <v>-137.83099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>29480.477805</v>
+        <v>29480.477804999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.189022</v>
+        <v>8.1890219999999996</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.530000</v>
+        <v>1298.53</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.711000</v>
+        <v>-219.71100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>29491.879375</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.192189</v>
+        <v>8.1921890000000008</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.370000</v>
+        <v>1367.37</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.412000</v>
+        <v>-356.41199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>29503.722815</v>
+        <v>29503.722815000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.195479</v>
+        <v>8.1954790000000006</v>
       </c>
       <c r="BP24" s="1">
-        <v>1480.570000</v>
+        <v>1480.57</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.796000</v>
+        <v>-579.79600000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>29514.710226</v>
+        <v>29514.710225999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.198531</v>
+        <v>8.1985309999999991</v>
       </c>
       <c r="BU24" s="1">
-        <v>1612.180000</v>
+        <v>1612.18</v>
       </c>
       <c r="BV24" s="1">
-        <v>-832.801000</v>
+        <v>-832.80100000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>29525.834001</v>
+        <v>29525.834000999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.201621</v>
+        <v>8.2016209999999994</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1763.470000</v>
+        <v>1763.47</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1108.270000</v>
+        <v>-1108.27</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>29539.102487</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.205306</v>
+        <v>8.2053060000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>2181.860000</v>
+        <v>2181.86</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1776.650000</v>
+        <v>-1776.65</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>29364.924343</v>
+        <v>29364.924342999999</v>
       </c>
       <c r="B25" s="1">
-        <v>8.156923</v>
+        <v>8.1569230000000008</v>
       </c>
       <c r="C25" s="1">
-        <v>1150.120000</v>
+        <v>1150.1199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.710000</v>
+        <v>-260.70999999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>29375.387976</v>
+        <v>29375.387976000002</v>
       </c>
       <c r="G25" s="1">
-        <v>8.159830</v>
+        <v>8.1598299999999995</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.160000</v>
+        <v>1172.1600000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.366000</v>
+        <v>-218.36600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>29385.594620</v>
+        <v>29385.59462</v>
       </c>
       <c r="L25" s="1">
-        <v>8.162665</v>
+        <v>8.1626650000000005</v>
       </c>
       <c r="M25" s="1">
-        <v>1199.550000</v>
+        <v>1199.55</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.151000</v>
+        <v>-151.15100000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>29396.168333</v>
+        <v>29396.168333000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.165602</v>
+        <v>8.1656019999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.880000</v>
+        <v>1206.8800000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.856000</v>
+        <v>-128.85599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>29406.315487</v>
       </c>
       <c r="V25" s="1">
-        <v>8.168421</v>
+        <v>8.1684210000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>1214.100000</v>
+        <v>1214.0999999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.685000</v>
+        <v>-107.685</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>29416.566802</v>
+        <v>29416.566802000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.171269</v>
+        <v>8.1712690000000006</v>
       </c>
       <c r="AB25" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.422700</v>
+        <v>-90.422700000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>29426.711164</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.174086</v>
+        <v>8.1740860000000009</v>
       </c>
       <c r="AG25" s="1">
-        <v>1225.760000</v>
+        <v>1225.76</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.928900</v>
+        <v>-85.928899999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>29436.892868</v>
+        <v>29436.892867999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.176915</v>
+        <v>8.1769149999999993</v>
       </c>
       <c r="AL25" s="1">
-        <v>1232.680000</v>
+        <v>1232.68</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.157500</v>
+        <v>-89.157499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>29447.856424</v>
+        <v>29447.856424000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.179960</v>
+        <v>8.1799599999999995</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1240.470000</v>
+        <v>1240.47</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.044000</v>
+        <v>-101.044</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>29458.523386</v>
+        <v>29458.523386000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.182923</v>
+        <v>8.1829230000000006</v>
       </c>
       <c r="AV25" s="1">
-        <v>1250.370000</v>
+        <v>1250.3699999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.384000</v>
+        <v>-120.384</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>29469.850523</v>
+        <v>29469.850523000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.186070</v>
+        <v>8.1860700000000008</v>
       </c>
       <c r="BA25" s="1">
-        <v>1258.720000</v>
+        <v>1258.72</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.810000</v>
+        <v>-137.81</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>29480.842365</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.189123</v>
+        <v>8.1891230000000004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.490000</v>
+        <v>1298.49</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.714000</v>
+        <v>-219.714</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>29492.626318</v>
+        <v>29492.626317999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.192396</v>
+        <v>8.1923960000000005</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.390000</v>
+        <v>1367.39</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.388000</v>
+        <v>-356.38799999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>29504.143422</v>
+        <v>29504.143422000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.195595</v>
+        <v>8.1955950000000009</v>
       </c>
       <c r="BP25" s="1">
-        <v>1480.540000</v>
+        <v>1480.54</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.821000</v>
+        <v>-579.82100000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>29515.125377</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.198646</v>
+        <v>8.1986460000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1612.220000</v>
+        <v>1612.22</v>
       </c>
       <c r="BV25" s="1">
-        <v>-832.818000</v>
+        <v>-832.81799999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>29526.246642</v>
+        <v>29526.246641999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.201735</v>
+        <v>8.2017349999999993</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1763.400000</v>
+        <v>1763.4</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1108.370000</v>
+        <v>-1108.3699999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>29539.965487</v>
+        <v>29539.965487000001</v>
       </c>
       <c r="CD25" s="1">
         <v>8.205546</v>
       </c>
       <c r="CE25" s="1">
-        <v>2183.450000</v>
+        <v>2183.4499999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1777.590000</v>
+        <v>-1777.59</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>29365.292870</v>
+        <v>29365.292870000001</v>
       </c>
       <c r="B26" s="1">
-        <v>8.157026</v>
+        <v>8.1570260000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.200000</v>
+        <v>1150.2</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.326000</v>
+        <v>-260.32600000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>29375.736135</v>
+        <v>29375.736134999999</v>
       </c>
       <c r="G26" s="1">
-        <v>8.159927</v>
+        <v>8.1599269999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>1172.040000</v>
+        <v>1172.04</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.436000</v>
+        <v>-218.43600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>29385.939371</v>
       </c>
       <c r="L26" s="1">
-        <v>8.162761</v>
+        <v>8.1627609999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>1199.230000</v>
+        <v>1199.23</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.199000</v>
+        <v>-151.19900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>29396.516524</v>
+        <v>29396.516523999999</v>
       </c>
       <c r="Q26" s="1">
         <v>8.165699</v>
       </c>
       <c r="R26" s="1">
-        <v>1206.920000</v>
+        <v>1206.92</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.850000</v>
+        <v>-128.85</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>29406.734110</v>
+        <v>29406.734110000001</v>
       </c>
       <c r="V26" s="1">
-        <v>8.168537</v>
+        <v>8.1685370000000006</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.627000</v>
+        <v>-107.627</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>29416.988401</v>
+        <v>29416.988400999999</v>
       </c>
       <c r="AA26" s="1">
         <v>8.171386</v>
       </c>
       <c r="AB26" s="1">
-        <v>1221.260000</v>
+        <v>1221.26</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.412400</v>
+        <v>-90.412400000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>29426.992708</v>
+        <v>29426.992708000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.174165</v>
+        <v>8.1741650000000003</v>
       </c>
       <c r="AG26" s="1">
-        <v>1225.700000</v>
+        <v>1225.7</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.857400</v>
+        <v>-85.857399999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>29437.242550</v>
+        <v>29437.242549999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.177012</v>
+        <v>8.1770119999999995</v>
       </c>
       <c r="AL26" s="1">
-        <v>1232.660000</v>
+        <v>1232.6600000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.171100</v>
+        <v>-89.171099999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>29448.215058</v>
+        <v>29448.215058000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.180060</v>
+        <v>8.1800599999999992</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1240.490000</v>
+        <v>1240.49</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.081000</v>
+        <v>-101.081</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>29458.888938</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.183025</v>
+        <v>8.1830250000000007</v>
       </c>
       <c r="AV26" s="1">
-        <v>1250.360000</v>
+        <v>1250.3599999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.390000</v>
+        <v>-120.39</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>29470.566746</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.186269</v>
+        <v>8.1862689999999994</v>
       </c>
       <c r="BA26" s="1">
-        <v>1258.730000</v>
+        <v>1258.73</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.834000</v>
+        <v>-137.834</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>29481.553629</v>
+        <v>29481.553629000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.189320</v>
+        <v>8.1893200000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.500000</v>
+        <v>1298.5</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.704000</v>
+        <v>-219.70400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>29493.000828</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.192500</v>
+        <v>8.1925000000000008</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.360000</v>
+        <v>1367.36</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.429000</v>
+        <v>-356.42899999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>29504.537449</v>
+        <v>29504.537448999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.195705</v>
+        <v>8.1957050000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1480.570000</v>
+        <v>1480.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.826000</v>
+        <v>-579.82600000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>29515.554911</v>
+        <v>29515.554910999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.198765</v>
+        <v>8.1987649999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1612.260000</v>
+        <v>1612.26</v>
       </c>
       <c r="BV26" s="1">
-        <v>-832.903000</v>
+        <v>-832.90300000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>29526.989185</v>
+        <v>29526.989184999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.201941</v>
+        <v>8.2019409999999997</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1763.570000</v>
+        <v>1763.57</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1108.430000</v>
+        <v>-1108.43</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>29540.181742</v>
+        <v>29540.181742000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.205606</v>
+        <v>8.2056059999999995</v>
       </c>
       <c r="CE26" s="1">
-        <v>2184.170000</v>
+        <v>2184.17</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1778.190000</v>
+        <v>-1778.19</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>